--- a/biology/Zoologie/Anteaeolidiella_indica/Anteaeolidiella_indica.xlsx
+++ b/biology/Zoologie/Anteaeolidiella_indica/Anteaeolidiella_indica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anteaeolidiella indica est une espèce de nudibranches de la famille des Aeolidiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite à l'île Maurice. Il a été signalé à tort comme une espèce largement répandue en mer Méditerranée, en mer des Caraïbes, en Afrique du Sud, dans la baie de Saldanha au sud du KwaZulu-Natal et en Nouvelle-Zélande. Ces enregistrements représentaient en réalité un complexe d'espèces distinctes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite à l'île Maurice. Il a été signalé à tort comme une espèce largement répandue en mer Méditerranée, en mer des Caraïbes, en Afrique du Sud, dans la baie de Saldanha au sud du KwaZulu-Natal et en Nouvelle-Zélande. Ces enregistrements représentaient en réalité un complexe d'espèces distinctes.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce nudibranche peut mesurer jusqu'à 40 mm.
-Miller[2] a désigné Aeolidiella indica comme espèce type du genre Anteaeolidiella, bien que son spécimen ne corresponde pas à la coloration indiquée par Bergh et était probablement Anteaeolidiella lurana[1].
+Miller a désigné Aeolidiella indica comme espèce type du genre Anteaeolidiella, bien que son spécimen ne corresponde pas à la coloration indiquée par Bergh et était probablement Anteaeolidiella lurana.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Anteaeolidiella indica (Bergh, 1888)[3].
-L'espèce a été initialement classée dans le genre Aeolidiella sous le protonyme Aeolidiella indica Bergh, 1888[3].
-Anteaeolidiella indica a pour synonyme[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Anteaeolidiella indica (Bergh, 1888).
+L'espèce a été initialement classée dans le genre Aeolidiella sous le protonyme Aeolidiella indica Bergh, 1888.
+Anteaeolidiella indica a pour synonyme :
 Aeolidiella indica Bergh, 1888</t>
         </is>
       </c>
